--- a/Expenses/enova.xlsx
+++ b/Expenses/enova.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alfalavalonline-my.sharepoint.com/personal/kska_framo_no/Documents/Documents/Github/klubben/Expenses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alfalavalonline-my.sharepoint.com/personal/kska_framo_no/Documents/Documents/GitHub/klubben/Expenses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{4F8AF042-C69B-4906-B196-0208AC44ABC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{266A2794-3B53-4552-93C1-9ED37E1A243D}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{4F8AF042-C69B-4906-B196-0208AC44ABC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71667904-5947-41AA-9FED-0535F1A902D1}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="4635" windowWidth="28800" windowHeight="15375" xr2:uid="{E685664F-A1F6-4860-AEB1-84712FEE1BB8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E685664F-A1F6-4860-AEB1-84712FEE1BB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>Leigland</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>Feil dato</t>
+  </si>
+  <si>
+    <t>Produseer</t>
+  </si>
+  <si>
+    <t>Magnor</t>
   </si>
 </sst>
 </file>
@@ -130,7 +136,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -143,10 +156,24 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B29EAEB-3CC6-48FC-A011-726F237F7F57}" name="Table1" displayName="Table1" ref="A2:E26" totalsRowShown="0">
+  <autoFilter ref="A2:E26" xr:uid="{3B29EAEB-3CC6-48FC-A011-726F237F7F57}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{03BEDA63-A68B-468C-AD52-A0D1CAB8C579}" name="Forfallsdato" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{09389D2B-2ED2-4396-B717-D01CC4C15E76}" name="Produseer"/>
+    <tableColumn id="3" xr3:uid="{ED9E04EF-8231-4B0A-B73E-4B474DE794E7}" name="Sum" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{8A2FCA5E-3C6D-405F-8F4B-B47B7ABE30EC}" name="Invoice"/>
+    <tableColumn id="5" xr3:uid="{0453A487-4329-4EE0-B268-E34205A2B95A}" name="Comment"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -184,7 +211,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -290,7 +317,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -432,7 +459,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -440,348 +467,384 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4496FD1-13C4-4237-B5A9-1CFDE84FE361}">
-  <dimension ref="A1:E34"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="C1" s="2">
+        <f>SUM(C3:C49)</f>
+        <v>471633.12</v>
+      </c>
+      <c r="D1">
+        <f>C1*0.25</f>
+        <v>117908.28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C1">
-        <f>SUM(C2:C149)</f>
-        <v>248746.12</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>45058</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>82199</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44931</v>
+        <v>45058</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>26289</v>
+        <v>82199</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45128</v>
+        <v>44931</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>30736</v>
+        <v>26289</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45058</v>
+        <v>45128</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>5506</v>
+        <v>30736</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44972</v>
+        <v>45058</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>20055.12</v>
-      </c>
-      <c r="D6">
-        <v>11542</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
+        <v>5506</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>44979</v>
+        <v>44972</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2">
-        <v>14950</v>
+        <v>20055.12</v>
       </c>
       <c r="D7">
-        <v>605</v>
+        <v>11542</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45165</v>
+        <v>44979</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2">
-        <v>42900</v>
+        <v>14950</v>
       </c>
       <c r="D8">
-        <v>607</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
+        <v>605</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45195</v>
+        <v>45165</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="2">
-        <v>8450</v>
+        <v>42900</v>
       </c>
       <c r="D9">
-        <v>609</v>
+        <v>607</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>44948</v>
+        <v>45195</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2">
-        <v>1333</v>
+        <v>8450</v>
       </c>
       <c r="D10">
-        <v>144977</v>
+        <v>609</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>44967</v>
+        <v>44948</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2">
-        <v>1945</v>
+        <v>1333</v>
       </c>
       <c r="D11">
-        <v>145300</v>
+        <v>144977</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44995</v>
+        <v>44967</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="2">
-        <v>1533</v>
+        <v>1945</v>
       </c>
       <c r="D12">
-        <v>145675</v>
+        <v>145300</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45026</v>
+        <v>44995</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2">
-        <v>5180</v>
+        <v>1533</v>
       </c>
       <c r="D13">
-        <v>146241</v>
+        <v>145675</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>42939</v>
+        <v>45026</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="2">
-        <v>351</v>
+        <v>5180</v>
       </c>
       <c r="D14">
-        <v>148296</v>
+        <v>146241</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45527</v>
+        <v>42939</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="2">
-        <v>1535</v>
+        <v>351</v>
       </c>
       <c r="D15">
-        <v>148521</v>
+        <v>148296</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>48083</v>
+        <v>45527</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="2">
-        <v>490</v>
+        <v>1535</v>
       </c>
       <c r="D16">
-        <v>148644</v>
+        <v>148521</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45025</v>
+        <v>48083</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="2">
-        <v>678</v>
+        <v>490</v>
       </c>
       <c r="D17">
-        <v>148720</v>
+        <v>148644</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45178</v>
+        <v>45025</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="2">
-        <v>183</v>
+        <v>678</v>
       </c>
       <c r="D18">
-        <v>148802</v>
+        <v>148720</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45270</v>
+        <v>45178</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="2">
-        <v>373</v>
+        <v>183</v>
       </c>
       <c r="D19">
-        <v>149470</v>
+        <v>148802</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45064</v>
+        <v>45270</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="2">
-        <v>3268</v>
+        <v>373</v>
       </c>
       <c r="D20">
-        <v>146930</v>
+        <v>149470</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
+        <v>45064</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3268</v>
+      </c>
+      <c r="D21">
+        <v>146930</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45082</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2887</v>
+      </c>
+      <c r="D22">
+        <v>153510</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>45052</v>
       </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2">
         <v>792</v>
       </c>
-      <c r="D21">
+      <c r="D23">
         <v>144674</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="2">
+        <v>140000</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2">
+        <v>60000</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="2">
+        <v>20000</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -807,7 +870,16 @@
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Expenses/enova.xlsx
+++ b/Expenses/enova.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alfalavalonline-my.sharepoint.com/personal/kska_framo_no/Documents/Documents/GitHub/klubben/Expenses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{4F8AF042-C69B-4906-B196-0208AC44ABC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71667904-5947-41AA-9FED-0535F1A902D1}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="8_{4F8AF042-C69B-4906-B196-0208AC44ABC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F094C2EC-918F-44F3-B22C-D14E9213DC93}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E685664F-A1F6-4860-AEB1-84712FEE1BB8}"/>
   </bookViews>
@@ -36,29 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
   <si>
     <t>Leigland</t>
   </si>
   <si>
-    <t>faktura4</t>
-  </si>
-  <si>
-    <t>faktura</t>
-  </si>
-  <si>
     <t>vindu utstikk</t>
   </si>
   <si>
     <t>vindu kjøkken?</t>
   </si>
   <si>
-    <t>faktura7</t>
-  </si>
-  <si>
-    <t>faktura-1151</t>
-  </si>
-  <si>
     <t>vindu sør</t>
   </si>
   <si>
@@ -92,7 +80,7 @@
     <t>Produseer</t>
   </si>
   <si>
-    <t>Magnor</t>
+    <t>moved</t>
   </si>
 </sst>
 </file>
@@ -157,8 +145,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B29EAEB-3CC6-48FC-A011-726F237F7F57}" name="Table1" displayName="Table1" ref="A2:E26" totalsRowShown="0">
-  <autoFilter ref="A2:E26" xr:uid="{3B29EAEB-3CC6-48FC-A011-726F237F7F57}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B29EAEB-3CC6-48FC-A011-726F237F7F57}" name="Table1" displayName="Table1" ref="A2:E31" totalsRowShown="0">
+  <autoFilter ref="A2:E31" xr:uid="{3B29EAEB-3CC6-48FC-A011-726F237F7F57}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Agnar"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E18">
+    <sortCondition descending="1" ref="D2:D31"/>
+  </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{03BEDA63-A68B-468C-AD52-A0D1CAB8C579}" name="Forfallsdato" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{09389D2B-2ED2-4396-B717-D01CC4C15E76}" name="Produseer"/>
@@ -468,10 +465,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4496FD1-13C4-4237-B5A9-1CFDE84FE361}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,198 +482,183 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C1" s="2">
-        <f>SUM(C3:C49)</f>
-        <v>471633.12</v>
+        <f>SUM(C3:C54)</f>
+        <v>500399.38</v>
       </c>
       <c r="D1">
         <f>C1*0.25</f>
-        <v>117908.28</v>
+        <v>125099.845</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45058</v>
+        <v>45600</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>82199</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
+        <v>1304</v>
+      </c>
+      <c r="D3">
+        <v>155904</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>44931</v>
+        <v>45082</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2">
-        <v>26289</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
+        <v>2887</v>
+      </c>
+      <c r="D4">
+        <v>153510</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45128</v>
+        <v>45458</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2">
-        <v>30736</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
+        <v>2887</v>
+      </c>
+      <c r="D5">
+        <v>153510</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45058</v>
+        <v>45404</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2">
-        <v>5506</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
+        <v>1256</v>
+      </c>
+      <c r="D6">
+        <v>152455</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>44972</v>
+        <v>45270</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2">
-        <v>20055.12</v>
+        <v>373</v>
       </c>
       <c r="D7">
-        <v>11542</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
+        <v>149470</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>44979</v>
+        <v>45178</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2">
-        <v>14950</v>
+        <v>183</v>
       </c>
       <c r="D8">
-        <v>605</v>
+        <v>148802</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45165</v>
+        <v>45025</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2">
-        <v>42900</v>
+        <v>678</v>
       </c>
       <c r="D9">
-        <v>607</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
+        <v>148720</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45195</v>
+        <v>48083</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2">
-        <v>8450</v>
+        <v>490</v>
       </c>
       <c r="D10">
-        <v>609</v>
+        <v>148644</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>44948</v>
+        <v>45527</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2">
-        <v>1333</v>
+        <v>1535</v>
       </c>
       <c r="D11">
-        <v>144977</v>
+        <v>148521</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44967</v>
+        <v>42939</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2">
-        <v>1945</v>
+        <v>351</v>
       </c>
       <c r="D12">
-        <v>145300</v>
+        <v>148296</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>44995</v>
+        <v>45064</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C13" s="2">
-        <v>1533</v>
+        <v>3268</v>
       </c>
       <c r="D13">
-        <v>145675</v>
+        <v>146930</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -684,7 +666,7 @@
         <v>45026</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2">
         <v>5180</v>
@@ -695,173 +677,251 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>42939</v>
+        <v>44995</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C15" s="2">
-        <v>351</v>
+        <v>1533</v>
       </c>
       <c r="D15">
-        <v>148296</v>
+        <v>145675</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45527</v>
+        <v>44967</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C16" s="2">
-        <v>1535</v>
+        <v>1945</v>
       </c>
       <c r="D16">
-        <v>148521</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>48083</v>
+        <v>44948</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2">
-        <v>490</v>
+        <v>1333</v>
       </c>
       <c r="D17">
-        <v>148644</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>144977</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45025</v>
+        <v>45052</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C18" s="2">
-        <v>678</v>
+        <v>792</v>
       </c>
       <c r="D18">
-        <v>148720</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>144674</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45178</v>
+        <v>44972</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>183</v>
+        <v>20055.12</v>
       </c>
       <c r="D19">
-        <v>148802</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11542</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45270</v>
+        <v>45590</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C20" s="2">
-        <v>373</v>
+        <v>115580.57</v>
       </c>
       <c r="D20">
-        <v>149470</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45064</v>
+        <v>45626</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C21" s="2">
-        <v>3268</v>
+        <v>42594.33</v>
       </c>
       <c r="D21">
-        <v>146930</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45082</v>
+        <v>45656</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C22" s="2">
-        <v>2887</v>
+        <v>61144.36</v>
       </c>
       <c r="D22">
-        <v>153510</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45052</v>
+        <v>45058</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C23" s="2">
-        <v>792</v>
+        <v>82199</v>
       </c>
       <c r="D23">
-        <v>144674</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+        <v>1028607</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>44931</v>
+      </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+        <v>26289</v>
+      </c>
+      <c r="D24">
+        <v>1028421</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45128</v>
+      </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+        <v>30736</v>
+      </c>
+      <c r="D25">
+        <v>1151</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45058</v>
+      </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5506</v>
+      </c>
+      <c r="D26">
+        <v>1028608</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>44979</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="2">
+        <v>14950</v>
+      </c>
+      <c r="D27">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45165</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2">
+        <v>42900</v>
+      </c>
+      <c r="D28">
+        <v>607</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45195</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="2">
+        <v>8450</v>
+      </c>
+      <c r="D29">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45631</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="2">
+        <v>24000</v>
+      </c>
+      <c r="D30">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
@@ -875,6 +935,21 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
